--- a/USDATAX/MSFT.xlsx
+++ b/USDATAX/MSFT.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="97">
   <si>
     <t>Kalem</t>
   </si>
@@ -306,6 +306,9 @@
   </si>
   <si>
     <t>İşletme Faaliyetlerinden Nakit Akışları</t>
+  </si>
+  <si>
+    <t>FAVÖK</t>
   </si>
 </sst>
 </file>
@@ -663,7 +666,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BW22"/>
+  <dimension ref="A1:BW23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4317,6 +4320,233 @@
       </c>
       <c r="BW22">
         <v>45057000000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:75">
+      <c r="A23" t="s">
+        <v>96</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>5939000000</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>5999000000</v>
+      </c>
+      <c r="I23">
+        <v>8513000000</v>
+      </c>
+      <c r="J23">
+        <v>4438000000</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>4482000000</v>
+      </c>
+      <c r="M23">
+        <v>8165000000</v>
+      </c>
+      <c r="N23">
+        <v>5173000000</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>7116000000</v>
+      </c>
+      <c r="Q23">
+        <v>7994000000</v>
+      </c>
+      <c r="R23">
+        <v>5709000000</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <v>7203000000</v>
+      </c>
+      <c r="U23">
+        <v>7771000000</v>
+      </c>
+      <c r="V23">
+        <v>6374000000</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <v>5308000000</v>
+      </c>
+      <c r="Y23">
+        <v>7969000000</v>
+      </c>
+      <c r="Z23">
+        <v>7612000000</v>
+      </c>
+      <c r="AA23">
+        <v>0</v>
+      </c>
+      <c r="AB23">
+        <v>6334000000</v>
+      </c>
+      <c r="AC23">
+        <v>7776000000</v>
+      </c>
+      <c r="AD23">
+        <v>6974000000</v>
+      </c>
+      <c r="AE23">
+        <v>0</v>
+      </c>
+      <c r="AF23">
+        <v>5844000000</v>
+      </c>
+      <c r="AG23">
+        <v>6026000000</v>
+      </c>
+      <c r="AH23">
+        <v>6594000000</v>
+      </c>
+      <c r="AI23">
+        <v>-2053000000</v>
+      </c>
+      <c r="AJ23">
+        <v>5793000000</v>
+      </c>
+      <c r="AK23">
+        <v>7905000000</v>
+      </c>
+      <c r="AL23">
+        <v>5283000000</v>
+      </c>
+      <c r="AM23">
+        <v>3080000000</v>
+      </c>
+      <c r="AN23">
+        <v>6715000000</v>
+      </c>
+      <c r="AO23">
+        <v>8679000000</v>
+      </c>
+      <c r="AP23">
+        <v>6723000000</v>
+      </c>
+      <c r="AQ23">
+        <v>7682000000</v>
+      </c>
+      <c r="AR23">
+        <v>7708000000</v>
+      </c>
+      <c r="AS23">
+        <v>10258000000</v>
+      </c>
+      <c r="AT23">
+        <v>8292000000</v>
+      </c>
+      <c r="AU23">
+        <v>10379000000</v>
+      </c>
+      <c r="AV23">
+        <v>9955000000</v>
+      </c>
+      <c r="AW23">
+        <v>13891000000</v>
+      </c>
+      <c r="AX23">
+        <v>10341000000</v>
+      </c>
+      <c r="AY23">
+        <v>12405000000</v>
+      </c>
+      <c r="AZ23">
+        <v>12686000000</v>
+      </c>
+      <c r="BA23">
+        <v>17897000000</v>
+      </c>
+      <c r="BB23">
+        <v>12975000000</v>
+      </c>
+      <c r="BC23">
+        <v>13407000000</v>
+      </c>
+      <c r="BD23">
+        <v>15876000000</v>
+      </c>
+      <c r="BE23">
+        <v>22247000000</v>
+      </c>
+      <c r="BF23">
+        <v>17048000000</v>
+      </c>
+      <c r="BG23">
+        <v>0</v>
+      </c>
+      <c r="BH23">
+        <v>20238000000</v>
+      </c>
+      <c r="BI23">
+        <v>20399000000</v>
+      </c>
+      <c r="BJ23">
+        <v>20364000000</v>
+      </c>
+      <c r="BK23">
+        <v>0</v>
+      </c>
+      <c r="BL23">
+        <v>21518000000</v>
+      </c>
+      <c r="BM23">
+        <v>27032000000</v>
+      </c>
+      <c r="BN23">
+        <v>22352000000</v>
+      </c>
+      <c r="BO23">
+        <v>0</v>
+      </c>
+      <c r="BP23">
+        <v>26895000000</v>
+      </c>
+      <c r="BQ23">
+        <v>31653000000</v>
+      </c>
+      <c r="BR23">
+        <v>27581000000</v>
+      </c>
+      <c r="BS23">
+        <v>0</v>
+      </c>
+      <c r="BT23">
+        <v>30552000000</v>
+      </c>
+      <c r="BU23">
+        <v>32000000000</v>
+      </c>
+      <c r="BV23">
+        <v>0</v>
+      </c>
+      <c r="BW23">
+        <v>37961000000</v>
       </c>
     </row>
   </sheetData>
@@ -6464,7 +6694,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BW8"/>
+  <dimension ref="A1:BW9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7723,6 +7953,233 @@
       </c>
       <c r="BW8">
         <v>-24043000000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:75">
+      <c r="A9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>5939000000</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>5999000000</v>
+      </c>
+      <c r="I9">
+        <v>8513000000</v>
+      </c>
+      <c r="J9">
+        <v>4438000000</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>4482000000</v>
+      </c>
+      <c r="M9">
+        <v>8165000000</v>
+      </c>
+      <c r="N9">
+        <v>5173000000</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>7116000000</v>
+      </c>
+      <c r="Q9">
+        <v>7994000000</v>
+      </c>
+      <c r="R9">
+        <v>5709000000</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>7203000000</v>
+      </c>
+      <c r="U9">
+        <v>7771000000</v>
+      </c>
+      <c r="V9">
+        <v>6374000000</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>5308000000</v>
+      </c>
+      <c r="Y9">
+        <v>7969000000</v>
+      </c>
+      <c r="Z9">
+        <v>7612000000</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <v>6334000000</v>
+      </c>
+      <c r="AC9">
+        <v>7776000000</v>
+      </c>
+      <c r="AD9">
+        <v>6974000000</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
+      </c>
+      <c r="AF9">
+        <v>5844000000</v>
+      </c>
+      <c r="AG9">
+        <v>6026000000</v>
+      </c>
+      <c r="AH9">
+        <v>6594000000</v>
+      </c>
+      <c r="AI9">
+        <v>-2053000000</v>
+      </c>
+      <c r="AJ9">
+        <v>5793000000</v>
+      </c>
+      <c r="AK9">
+        <v>7905000000</v>
+      </c>
+      <c r="AL9">
+        <v>5283000000</v>
+      </c>
+      <c r="AM9">
+        <v>3080000000</v>
+      </c>
+      <c r="AN9">
+        <v>6715000000</v>
+      </c>
+      <c r="AO9">
+        <v>8679000000</v>
+      </c>
+      <c r="AP9">
+        <v>6723000000</v>
+      </c>
+      <c r="AQ9">
+        <v>7682000000</v>
+      </c>
+      <c r="AR9">
+        <v>7708000000</v>
+      </c>
+      <c r="AS9">
+        <v>10258000000</v>
+      </c>
+      <c r="AT9">
+        <v>8292000000</v>
+      </c>
+      <c r="AU9">
+        <v>10379000000</v>
+      </c>
+      <c r="AV9">
+        <v>9955000000</v>
+      </c>
+      <c r="AW9">
+        <v>13891000000</v>
+      </c>
+      <c r="AX9">
+        <v>10341000000</v>
+      </c>
+      <c r="AY9">
+        <v>12405000000</v>
+      </c>
+      <c r="AZ9">
+        <v>12686000000</v>
+      </c>
+      <c r="BA9">
+        <v>17897000000</v>
+      </c>
+      <c r="BB9">
+        <v>12975000000</v>
+      </c>
+      <c r="BC9">
+        <v>13407000000</v>
+      </c>
+      <c r="BD9">
+        <v>15876000000</v>
+      </c>
+      <c r="BE9">
+        <v>22247000000</v>
+      </c>
+      <c r="BF9">
+        <v>17048000000</v>
+      </c>
+      <c r="BG9">
+        <v>0</v>
+      </c>
+      <c r="BH9">
+        <v>20238000000</v>
+      </c>
+      <c r="BI9">
+        <v>20399000000</v>
+      </c>
+      <c r="BJ9">
+        <v>20364000000</v>
+      </c>
+      <c r="BK9">
+        <v>0</v>
+      </c>
+      <c r="BL9">
+        <v>21518000000</v>
+      </c>
+      <c r="BM9">
+        <v>27032000000</v>
+      </c>
+      <c r="BN9">
+        <v>22352000000</v>
+      </c>
+      <c r="BO9">
+        <v>0</v>
+      </c>
+      <c r="BP9">
+        <v>26895000000</v>
+      </c>
+      <c r="BQ9">
+        <v>31653000000</v>
+      </c>
+      <c r="BR9">
+        <v>27581000000</v>
+      </c>
+      <c r="BS9">
+        <v>0</v>
+      </c>
+      <c r="BT9">
+        <v>30552000000</v>
+      </c>
+      <c r="BU9">
+        <v>32000000000</v>
+      </c>
+      <c r="BV9">
+        <v>0</v>
+      </c>
+      <c r="BW9">
+        <v>37961000000</v>
       </c>
     </row>
   </sheetData>
